--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_8_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_8_43.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77181.93385075421</v>
+        <v>5151068.340509109</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77181.93385075421</v>
+        <v>5151068.340509109</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1035152523.076029</v>
+        <v>38134752.9363412</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10931.7367218018</v>
+        <v>893870.0848840406</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21081.85009963582</v>
+        <v>1651838.115013661</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31238.62117358179</v>
+        <v>2409806.145143281</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41599.4433069634</v>
+        <v>3167014.477730047</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51960.26544034499</v>
+        <v>3924222.810316815</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>62321.08438738343</v>
+        <v>4681431.142903581</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>72681.84922901381</v>
+        <v>5438639.475490346</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>83042.66817605226</v>
+        <v>6195847.808077107</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>93403.49030943388</v>
+        <v>6953056.14066387</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>103764.3057240581</v>
+        <v>7710264.473250631</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>114125.1086360842</v>
+        <v>8467472.805837395</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>124485.9307694658</v>
+        <v>9224681.13842416</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>134846.7529028475</v>
+        <v>9981889.471010935</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>145207.575036229</v>
+        <v>10739097.80359771</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>155568.3971696108</v>
+        <v>11496306.13618448</v>
       </c>
     </row>
   </sheetData>
